--- a/data/JUN25-Most.xlsx
+++ b/data/JUN25-Most.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\Water-Use-Assumptions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D6F06-5797-4EF4-A46A-742CEA8B74B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A5562-277D-4CDF-A09A-4E8703D73B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53730" yWindow="3660" windowWidth="22215" windowHeight="16830" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
+    <workbookView xWindow="50970" yWindow="2400" windowWidth="24150" windowHeight="16830" xr2:uid="{E48FCDF0-69A1-49E3-B50E-C81CB2062227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4732B70-47CF-476C-AB24-60ECD71C8D50}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E52"/>
     </sheetView>
   </sheetViews>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>956999.82399985904</v>
+        <v>957299.82399883401</v>
       </c>
       <c r="D3" s="2">
         <v>949999.999999883</v>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>822055.36570045794</v>
+        <v>822282.36570278998</v>
       </c>
       <c r="D15" s="2">
         <v>767875.00000015995</v>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>196941.37776036901</v>
+        <v>196974.37775985099</v>
       </c>
       <c r="D29" s="2">
         <v>191571.00000014901</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1.93313248858286E-7</v>
+        <v>1.93337409993937E-7</v>
       </c>
       <c r="D32" s="2">
         <v>1.9338573226604999E-7</v>
